--- a/data/trans_bre/DC-Edad-trans_bre.xlsx
+++ b/data/trans_bre/DC-Edad-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>5.735191823637404</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>2.029773037964249</v>
+        <v>2.029773037964248</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.09685269325754</v>
+        <v>12.72735364139507</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.465400951658173</v>
+        <v>8.221817620585577</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.488463973713683</v>
+        <v>5.284289564679336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8.797781472200027</v>
+        <v>9.228142457370989</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>2.231644810829577</v>
+        <v>2.18789297732103</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.56094984861771</v>
+        <v>1.532456997551323</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>1.686225644809938</v>
+        <v>2.005094417181716</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.6865709228268063</v>
+        <v>0.6497380879478312</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.17094132989576</v>
+        <v>20.72617643579606</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.31412096936976</v>
+        <v>16.11143511029416</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.63870192889476</v>
+        <v>11.50482970825196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24.77653782752849</v>
+        <v>25.24293712531412</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7.320444749296838</v>
+        <v>6.817772742279584</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>6.182277134100448</v>
+        <v>6.361657464847025</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>16.29683800450809</v>
+        <v>16.4841465937486</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4.924087261215664</v>
+        <v>5.277482014491461</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>12.1143097882485</v>
+        <v>12.04693582248454</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.622773362482404</v>
+        <v>5.147002592526092</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.7914664626584</v>
+        <v>6.61985879093811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10.32340308460684</v>
+        <v>9.718524625231661</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>1.161127612458135</v>
+        <v>1.136132836376637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8147075170811101</v>
+        <v>0.7135433624196552</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.285614019914949</v>
+        <v>1.274482747959814</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.7720571178411434</v>
+        <v>0.6731143950138871</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>20.26323497659056</v>
+        <v>20.19589688604715</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>12.28622676149345</v>
+        <v>12.54400666698507</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>13.32822380592077</v>
+        <v>13.20827879050583</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.56556006992526</v>
+        <v>20.60994932223448</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.751801315981789</v>
+        <v>2.723426409113542</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.789512525326851</v>
+        <v>2.793415025700814</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.43191511379513</v>
+        <v>5.509756526314296</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.751086763918856</v>
+        <v>2.702385370653689</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.502683833566416</v>
+        <v>2.279655232065634</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.890657759659172</v>
+        <v>9.349047379124251</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.010284241091639</v>
+        <v>1.909532439972654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.20286183481672</v>
+        <v>12.82952497889916</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1477365206236053</v>
+        <v>0.1248655655842024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9886315054324772</v>
+        <v>1.045519978042371</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2237879054056083</v>
+        <v>0.2110208823366617</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.7781245314789773</v>
+        <v>0.7920466743276849</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.34572886318144</v>
+        <v>11.20014145236868</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>16.27015826053371</v>
+        <v>16.65001984489018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.359863607010292</v>
+        <v>8.207852398066255</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.60525809583868</v>
+        <v>21.16414750449171</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8270432236257143</v>
+        <v>0.8387081595434321</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.667287716089907</v>
+        <v>3.014610871586858</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.490718200799571</v>
+        <v>1.38924990541476</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.881253251765632</v>
+        <v>1.783182943525409</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.7306542449885277</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6081317290749789</v>
+        <v>0.608131729074979</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.02851726846462</v>
+        <v>1.595392363183905</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.856800344788725</v>
+        <v>6.625297914919026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.127311443448717</v>
+        <v>3.422175766852425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.676963825556655</v>
+        <v>9.653660878961876</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.04246621000461341</v>
+        <v>0.06580106956578091</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5899142916674851</v>
+        <v>0.5550319492621968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2754113674857275</v>
+        <v>0.294528481470846</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3688360404937721</v>
+        <v>0.3583911222793333</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>11.65926536271501</v>
+        <v>12.15834506120998</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.56167167577435</v>
+        <v>15.16000293068713</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.9732957754054</v>
+        <v>11.05074165360783</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18.25888188220119</v>
+        <v>18.60092820893928</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6306456789527229</v>
+        <v>0.6491311981688073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.977099951629492</v>
+        <v>1.885759937173277</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.357701687003024</v>
+        <v>1.356266537724242</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8786803298881211</v>
+        <v>0.9136610115611022</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>9.64880744018742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15.25253478097861</v>
+        <v>15.25253478097863</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.0373736717105085</v>
@@ -1049,7 +1049,7 @@
         <v>0.6375934498215577</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.5270997818859368</v>
+        <v>0.5270997818859374</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.608737920357142</v>
+        <v>-7.963656705609583</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>10.2343404181472</v>
+        <v>10.55818362307816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4.108107990084378</v>
+        <v>4.102074843309235</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10.07950929856718</v>
+        <v>10.73997837509983</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2120993425092443</v>
+        <v>-0.2249275080425025</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.666173811680509</v>
+        <v>0.6815320957412797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2144682279151888</v>
+        <v>0.2193074392061793</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3198096931938632</v>
+        <v>0.3356967053105474</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.820879249246025</v>
+        <v>5.09070287287408</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.8547468394691</v>
+        <v>21.32681648865841</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>15.29718306404017</v>
+        <v>15.10033534011608</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19.3950574080392</v>
+        <v>19.60820260734777</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1688005677333291</v>
+        <v>0.1798325580482509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.937088233214583</v>
+        <v>1.938443439934665</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.183888147911888</v>
+        <v>1.157137948752484</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7393554796902626</v>
+        <v>0.7501312319254616</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.716315339826262</v>
+        <v>6.317783373431281</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.354178410522398</v>
+        <v>6.68596596624713</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.779049343875451</v>
+        <v>2.191752277969496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14.19251937782114</v>
+        <v>13.81463132184843</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.208389070422912</v>
+        <v>0.1923247538529271</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2434155218301016</v>
+        <v>0.25969336347375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1226742165550764</v>
+        <v>0.1108099156888503</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.4297833626944986</v>
+        <v>0.426611666323292</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.58772153628937</v>
+        <v>20.33430098676133</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>20.10499034265176</v>
+        <v>20.97885056603632</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14.38030608530325</v>
+        <v>14.0638898203086</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24.15917368856341</v>
+        <v>24.84384615029629</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.850194543578396</v>
+        <v>0.8845052040678233</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.148013985420837</v>
+        <v>1.266123773931141</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.069742560544757</v>
+        <v>1.107496702728486</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9155555292059869</v>
+        <v>0.9595929006087163</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>9.777656040035454</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17.75162022711784</v>
+        <v>17.75162022711783</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01457852851130752</v>
@@ -1249,7 +1249,7 @@
         <v>0.4301436638222729</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.4227805403298084</v>
+        <v>0.4227805403298082</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.012782746545536</v>
+        <v>-7.59400680051184</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.405616780760718</v>
+        <v>8.675497116096583</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.895517702186971</v>
+        <v>2.556390384002847</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12.29062781702034</v>
+        <v>11.89687941758435</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.1878740783820522</v>
+        <v>-0.1826890255906983</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.296391945853863</v>
+        <v>0.2683989537420899</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1059982558337285</v>
+        <v>0.08789867444749665</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.2672233723555055</v>
+        <v>0.2605222465036053</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.329900182648354</v>
+        <v>9.208839623323446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.70462290451108</v>
+        <v>24.10072851312069</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.8314379701695</v>
+        <v>16.41518101197602</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>23.64188613763267</v>
+        <v>23.18280210717365</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.284556341737325</v>
+        <v>0.2958056298254409</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.204884671093344</v>
+        <v>1.120290649710036</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.842261837211715</v>
+        <v>0.8312359402318067</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.613623271064654</v>
+        <v>0.6164764518748782</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1349,7 @@
         <v>0.9384691024083183</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.808396249509027</v>
+        <v>0.8083962495090268</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>8.283651067204268</v>
+        <v>8.431571158255895</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>11.7875171564892</v>
+        <v>11.85925806825169</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7.170497759235309</v>
+        <v>7.274261026989022</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15.27168137121055</v>
+        <v>15.35911522618484</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4519317465834685</v>
+        <v>0.4546716916184907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.045841415162478</v>
+        <v>1.067702637526519</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7139150164216908</v>
+        <v>0.7029937715241739</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.6811060292531288</v>
+        <v>0.672448582027846</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.35138051635385</v>
+        <v>12.35397188269451</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>15.26889722562887</v>
+        <v>15.40414556339215</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>10.53709383991108</v>
+        <v>10.60558085366872</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>19.17898014513667</v>
+        <v>19.34355373925219</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7476800096992231</v>
+        <v>0.7526148752086742</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.580358074638911</v>
+        <v>1.602365023054144</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.222453830722748</v>
+        <v>1.214217204574177</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.9458026815752817</v>
+        <v>0.9510730090775431</v>
       </c>
     </row>
     <row r="28">
